--- a/Analysis/2kr_analysis/boss_arrival_time_20-25/waiting_time/easy_game_mode/2kr_easy_game_mode_minon_waiting_time.xlsx
+++ b/Analysis/2kr_analysis/boss_arrival_time_20-25/waiting_time/easy_game_mode/2kr_easy_game_mode_minon_waiting_time.xlsx
@@ -847,7 +847,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -937,8 +937,8 @@
             <c:trendlineType val="linear"/>
             <c:forward val="0"/>
             <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1920,11 +1920,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6426497"/>
-        <c:axId val="73253892"/>
+        <c:axId val="24491646"/>
+        <c:axId val="14141401"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6426497"/>
+        <c:axId val="24491646"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,12 +1980,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73253892"/>
+        <c:crossAx val="14141401"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73253892"/>
+        <c:axId val="14141401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6426497"/>
+        <c:crossAx val="24491646"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2077,7 +2077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3136,11 +3136,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9561421"/>
-        <c:axId val="89182086"/>
+        <c:axId val="38023403"/>
+        <c:axId val="14623202"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9561421"/>
+        <c:axId val="38023403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,12 +3196,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89182086"/>
+        <c:crossAx val="14623202"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89182086"/>
+        <c:axId val="14623202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,7 +3266,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9561421"/>
+        <c:crossAx val="38023403"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3304,9 +3304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
+      <xdr:colOff>150840</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3314,8 +3314,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9771480" y="11727720"/>
-        <a:ext cx="7642800" cy="4548600"/>
+        <a:off x="9772560" y="11727720"/>
+        <a:ext cx="7655040" cy="4548240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3334,9 +3334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
+      <xdr:colOff>172800</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3344,8 +3344,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26677800" y="11629800"/>
-        <a:ext cx="7061760" cy="4132080"/>
+        <a:off x="26703000" y="11629800"/>
+        <a:ext cx="7073280" cy="4131720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3365,11 +3365,11 @@
   </sheetPr>
   <dimension ref="A1:BP229"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="26" zoomScaleNormal="26" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H64" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
